--- a/TABEL.xlsx
+++ b/TABEL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\work_place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F856EB5-747B-4B76-A001-C24A8E7F9C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C9CED3-0D31-41A4-B1E1-53BBD0D0B9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="24">
   <si>
     <t>УЗ "Витебская областная клиническая больница"</t>
   </si>
@@ -96,9 +96,6 @@
     <t>Табель учета рабочего времени врача-интерна по специальности "хирургия(хирургия)" дополнение УЗ "ВОКБ" за сентябрь 2021 года при фактическом оказании помощи пациентам сCOVID-19 на базе отделения хирургической гепатологии и трансплантации УЗ "ВОКБ"</t>
   </si>
   <si>
-    <t>Табель учета рабочего времени врача-интерна по специальности "хирургия(хирургия)" дополнение УЗ "ВОКБ" за сентябрь 2021 года при фактическом оказании помощи пациентам сCOVID-19 на базе нейрохирургического отделения УЗ "ВОКБ"</t>
-  </si>
-  <si>
     <t>Дорошков В.Г.</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Семёнов Е.В.</t>
+  </si>
+  <si>
+    <t>Табель учета рабочего времени врача-интерна по специальности "хирургия(хирургия)" дополнение УЗ "ВОКБ" за декабрь 2021 года при фактическом оказании помощи пациентам сCOVID-19 на базе нейрохирургического отделения УЗ "ВОКБ"</t>
   </si>
 </sst>
 </file>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -418,12 +418,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -513,12 +507,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -929,7 +917,7 @@
   <dimension ref="A1:AX26"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="130" zoomScaleNormal="100" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15:AI16"/>
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1018,7 +1006,7 @@
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="N2" s="17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="17"/>
@@ -1209,118 +1197,118 @@
       <c r="D8" s="1"/>
     </row>
     <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="60" t="s">
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="46">
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="44">
         <v>1</v>
       </c>
-      <c r="K10" s="52">
+      <c r="K10" s="44">
         <v>2</v>
       </c>
-      <c r="L10" s="52">
+      <c r="L10" s="44">
         <v>3</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="50">
         <v>4</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="50">
         <v>5</v>
       </c>
-      <c r="O10" s="46">
-        <v>6</v>
-      </c>
-      <c r="P10" s="46">
+      <c r="O10" s="44">
+        <v>6</v>
+      </c>
+      <c r="P10" s="44">
         <v>7</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="44">
         <v>8</v>
       </c>
-      <c r="R10" s="52">
+      <c r="R10" s="44">
         <v>9</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="44">
         <v>10</v>
       </c>
-      <c r="T10" s="46">
+      <c r="T10" s="50">
         <v>11</v>
       </c>
-      <c r="U10" s="46">
+      <c r="U10" s="50">
         <v>12</v>
       </c>
-      <c r="V10" s="46">
+      <c r="V10" s="44">
         <v>13</v>
       </c>
-      <c r="W10" s="46">
+      <c r="W10" s="44">
         <v>14</v>
       </c>
-      <c r="X10" s="46">
+      <c r="X10" s="44">
         <v>15</v>
       </c>
-      <c r="Y10" s="52">
+      <c r="Y10" s="44">
         <v>16</v>
       </c>
-      <c r="Z10" s="52">
+      <c r="Z10" s="44">
         <v>17</v>
       </c>
-      <c r="AA10" s="46">
+      <c r="AA10" s="50">
         <v>18</v>
       </c>
-      <c r="AB10" s="46">
+      <c r="AB10" s="50">
         <v>19</v>
       </c>
-      <c r="AC10" s="46">
+      <c r="AC10" s="44">
         <v>20</v>
       </c>
-      <c r="AD10" s="46">
+      <c r="AD10" s="44">
         <v>21</v>
       </c>
-      <c r="AE10" s="55">
+      <c r="AE10" s="53">
         <v>22</v>
       </c>
-      <c r="AF10" s="52">
+      <c r="AF10" s="44">
         <v>23</v>
       </c>
-      <c r="AG10" s="52">
+      <c r="AG10" s="44">
         <v>24</v>
       </c>
-      <c r="AH10" s="46">
+      <c r="AH10" s="50">
         <v>25</v>
       </c>
-      <c r="AI10" s="46">
+      <c r="AI10" s="50">
         <v>26</v>
       </c>
-      <c r="AJ10" s="46">
+      <c r="AJ10" s="44">
         <v>27</v>
       </c>
-      <c r="AK10" s="49">
+      <c r="AK10" s="47">
         <v>28</v>
       </c>
-      <c r="AL10" s="46">
+      <c r="AL10" s="44">
         <v>29</v>
       </c>
-      <c r="AM10" s="52">
+      <c r="AM10" s="44">
         <v>30</v>
       </c>
-      <c r="AN10" s="52">
+      <c r="AN10" s="44">
         <v>31</v>
       </c>
-      <c r="AO10" s="44" t="s">
+      <c r="AO10" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AP10" s="44"/>
+      <c r="AP10" s="42"/>
       <c r="AQ10" s="28" t="s">
         <v>10</v>
       </c>
@@ -1339,48 +1327,48 @@
       <c r="AX10" s="19"/>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A11" s="60"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="53"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="47"/>
-      <c r="W11" s="47"/>
-      <c r="X11" s="47"/>
-      <c r="Y11" s="53"/>
-      <c r="Z11" s="53"/>
-      <c r="AA11" s="47"/>
-      <c r="AB11" s="47"/>
-      <c r="AC11" s="47"/>
-      <c r="AD11" s="47"/>
-      <c r="AE11" s="56"/>
-      <c r="AF11" s="53"/>
-      <c r="AG11" s="53"/>
-      <c r="AH11" s="47"/>
-      <c r="AI11" s="47"/>
-      <c r="AJ11" s="47"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="47"/>
-      <c r="AM11" s="53"/>
-      <c r="AN11" s="53"/>
-      <c r="AO11" s="44"/>
-      <c r="AP11" s="44"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="45"/>
+      <c r="P11" s="45"/>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="51"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="45"/>
+      <c r="Y11" s="45"/>
+      <c r="Z11" s="45"/>
+      <c r="AA11" s="51"/>
+      <c r="AB11" s="51"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="45"/>
+      <c r="AE11" s="54"/>
+      <c r="AF11" s="45"/>
+      <c r="AG11" s="45"/>
+      <c r="AH11" s="51"/>
+      <c r="AI11" s="51"/>
+      <c r="AJ11" s="45"/>
+      <c r="AK11" s="48"/>
+      <c r="AL11" s="45"/>
+      <c r="AM11" s="45"/>
+      <c r="AN11" s="45"/>
+      <c r="AO11" s="42"/>
+      <c r="AP11" s="42"/>
       <c r="AQ11" s="28"/>
       <c r="AR11" s="28"/>
       <c r="AS11" s="29"/>
@@ -1391,48 +1379,48 @@
       <c r="AX11" s="19"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="60"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="54"/>
-      <c r="S12" s="54"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="54"/>
-      <c r="Z12" s="54"/>
-      <c r="AA12" s="48"/>
-      <c r="AB12" s="48"/>
-      <c r="AC12" s="48"/>
-      <c r="AD12" s="48"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="54"/>
-      <c r="AG12" s="54"/>
-      <c r="AH12" s="48"/>
-      <c r="AI12" s="48"/>
-      <c r="AJ12" s="48"/>
-      <c r="AK12" s="51"/>
-      <c r="AL12" s="48"/>
-      <c r="AM12" s="54"/>
-      <c r="AN12" s="54"/>
-      <c r="AO12" s="44"/>
-      <c r="AP12" s="44"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="46"/>
+      <c r="P12" s="46"/>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="46"/>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="55"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52"/>
+      <c r="AJ12" s="46"/>
+      <c r="AK12" s="49"/>
+      <c r="AL12" s="46"/>
+      <c r="AM12" s="46"/>
+      <c r="AN12" s="46"/>
+      <c r="AO12" s="42"/>
+      <c r="AP12" s="42"/>
       <c r="AQ12" s="28"/>
       <c r="AR12" s="28"/>
       <c r="AS12" s="29"/>
@@ -1443,80 +1431,80 @@
       <c r="AX12" s="19"/>
     </row>
     <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="45">
+      <c r="A13" s="43">
         <v>1</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="28"/>
-      <c r="E13" s="58" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="60" t="s">
+      <c r="E13" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="63">
-        <v>6</v>
-      </c>
-      <c r="K13" s="13">
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="61">
+        <v>6</v>
+      </c>
+      <c r="K13" s="9">
+        <v>6</v>
+      </c>
+      <c r="L13" s="9">
+        <v>6</v>
+      </c>
+      <c r="M13" s="13">
         <v>5</v>
       </c>
-      <c r="L13" s="42" t="s">
+      <c r="N13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="40">
-        <v>5.7</v>
-      </c>
-      <c r="N13" s="9">
-        <v>6</v>
-      </c>
       <c r="O13" s="9">
         <v>6</v>
       </c>
       <c r="P13" s="9">
         <v>6</v>
       </c>
-      <c r="Q13" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="R13" s="42" t="s">
+      <c r="Q13" s="9">
+        <v>6</v>
+      </c>
+      <c r="R13" s="9">
+        <v>6</v>
+      </c>
+      <c r="S13" s="9">
+        <v>6</v>
+      </c>
+      <c r="T13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="S13" s="42" t="s">
+      <c r="U13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="T13" s="9">
-        <v>6</v>
-      </c>
-      <c r="U13" s="9">
-        <v>6</v>
-      </c>
-      <c r="V13" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="W13" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="X13" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="Y13" s="42" t="s">
+      <c r="V13" s="9">
+        <v>6</v>
+      </c>
+      <c r="W13" s="9">
+        <v>6</v>
+      </c>
+      <c r="X13" s="9">
+        <v>6</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="Z13" s="42" t="s">
+      <c r="AB13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AA13" s="9">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="9">
-        <v>6</v>
-      </c>
       <c r="AC13" s="9">
         <v>6</v>
       </c>
@@ -1526,98 +1514,95 @@
       <c r="AE13" s="9">
         <v>6</v>
       </c>
-      <c r="AF13" s="13" t="s">
+      <c r="AF13" s="9">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="9">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AG13" s="13" t="s">
+      <c r="AI13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AH13" s="9">
-        <v>6</v>
-      </c>
-      <c r="AI13" s="9">
-        <v>6</v>
-      </c>
       <c r="AJ13" s="9">
         <v>6</v>
       </c>
-      <c r="AK13" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="AL13" s="40">
-        <v>5.5</v>
-      </c>
-      <c r="AM13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="AO13" s="38">
-        <v>127.7</v>
-      </c>
-      <c r="AP13" s="38"/>
+      <c r="AK13" s="38">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="38">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="AM13" s="9">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="9">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="36">
+        <f>SUM(J13:AN14)</f>
+        <v>141.1</v>
+      </c>
+      <c r="AP13" s="36"/>
       <c r="AQ13" s="20">
         <v>16</v>
       </c>
       <c r="AR13" s="21"/>
       <c r="AS13" s="30">
-        <f>SUM(AO13,AO15)</f>
-        <v>161.69999999999999</v>
+        <f>SUM(AO13:AP16)</f>
+        <v>175.1</v>
       </c>
       <c r="AT13" s="31"/>
-      <c r="AU13" s="20">
-        <v>12</v>
-      </c>
+      <c r="AU13" s="20"/>
       <c r="AV13" s="21"/>
-      <c r="AW13" s="20">
-        <v>24</v>
-      </c>
+      <c r="AW13" s="20"/>
       <c r="AX13" s="21"/>
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A14" s="45"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="28"/>
       <c r="C14" s="28"/>
       <c r="D14" s="28"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="43"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="10"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="62"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
       <c r="O14" s="10"/>
       <c r="P14" s="10"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="43"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="43"/>
-      <c r="AA14" s="10"/>
-      <c r="AB14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
       <c r="AE14" s="10"/>
-      <c r="AF14" s="14"/>
-      <c r="AG14" s="14"/>
-      <c r="AH14" s="10"/>
-      <c r="AI14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
       <c r="AJ14" s="10"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="38"/>
-      <c r="AP14" s="38"/>
+      <c r="AK14" s="39"/>
+      <c r="AL14" s="39"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="36"/>
+      <c r="AP14" s="36"/>
       <c r="AQ14" s="25"/>
       <c r="AR14" s="26"/>
       <c r="AS14" s="32"/>
@@ -1628,58 +1613,54 @@
       <c r="AX14" s="26"/>
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="28"/>
-      <c r="E15" s="59" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="61" t="s">
+      <c r="E15" s="57" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="61"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="36"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="7"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="5"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11">
-        <v>17</v>
-      </c>
-      <c r="T15" s="55"/>
-      <c r="U15" s="7"/>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="7"/>
-      <c r="W15" s="55"/>
+      <c r="W15" s="53"/>
       <c r="X15" s="7"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
       <c r="AC15" s="7"/>
       <c r="AD15" s="9"/>
       <c r="AE15" s="9"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="5"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="9"/>
-      <c r="AJ15" s="68">
-        <v>17</v>
-      </c>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="40"/>
+      <c r="AI15" s="40"/>
+      <c r="AJ15" s="44"/>
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
-      <c r="AM15" s="36"/>
-      <c r="AN15" s="36"/>
-      <c r="AO15" s="39">
+      <c r="AM15" s="63"/>
+      <c r="AN15" s="63"/>
+      <c r="AO15" s="37">
         <v>34</v>
       </c>
-      <c r="AP15" s="39"/>
+      <c r="AP15" s="37"/>
       <c r="AQ15" s="25"/>
       <c r="AR15" s="26"/>
       <c r="AS15" s="32"/>
@@ -1690,48 +1671,48 @@
       <c r="AX15" s="26"/>
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
       <c r="D16" s="28"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="8"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="6"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
       <c r="Q16" s="8"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="8"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="8"/>
-      <c r="W16" s="57"/>
+      <c r="W16" s="55"/>
       <c r="X16" s="8"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="8"/>
-      <c r="AB16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
       <c r="AC16" s="8"/>
       <c r="AD16" s="10"/>
       <c r="AE16" s="10"/>
-      <c r="AF16" s="6"/>
-      <c r="AG16" s="6"/>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="69"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="41"/>
+      <c r="AI16" s="41"/>
+      <c r="AJ16" s="46"/>
       <c r="AK16" s="8"/>
       <c r="AL16" s="8"/>
-      <c r="AM16" s="37"/>
-      <c r="AN16" s="37"/>
-      <c r="AO16" s="39"/>
-      <c r="AP16" s="39"/>
+      <c r="AM16" s="64"/>
+      <c r="AN16" s="64"/>
+      <c r="AO16" s="37"/>
+      <c r="AP16" s="37"/>
       <c r="AQ16" s="22"/>
       <c r="AR16" s="23"/>
       <c r="AS16" s="34"/>
@@ -1751,15 +1732,15 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
       <c r="W22" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X22" s="27"/>
       <c r="Y22" s="27"/>
@@ -1768,21 +1749,21 @@
     </row>
     <row r="24" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C24" s="15"/>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
       <c r="F24" s="15"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
       <c r="W24" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="X24" s="27"/>
       <c r="Y24" s="27"/>
@@ -2199,550 +2180,550 @@
       <c r="D8" s="1"/>
     </row>
     <row r="10" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="70" t="s">
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="73">
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="69">
         <v>1</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="67">
         <v>2</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="67">
         <v>3</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="67">
         <v>4</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="67">
         <v>5</v>
       </c>
-      <c r="O10" s="71">
-        <v>6</v>
-      </c>
-      <c r="P10" s="73">
+      <c r="O10" s="67">
+        <v>6</v>
+      </c>
+      <c r="P10" s="69">
         <v>7</v>
       </c>
-      <c r="Q10" s="73">
+      <c r="Q10" s="69">
         <v>8</v>
       </c>
-      <c r="R10" s="71">
+      <c r="R10" s="67">
         <v>9</v>
       </c>
-      <c r="S10" s="71">
+      <c r="S10" s="67">
         <v>10</v>
       </c>
-      <c r="T10" s="71">
+      <c r="T10" s="67">
         <v>11</v>
       </c>
-      <c r="U10" s="71">
+      <c r="U10" s="67">
         <v>12</v>
       </c>
-      <c r="V10" s="71">
+      <c r="V10" s="67">
         <v>13</v>
       </c>
-      <c r="W10" s="73">
+      <c r="W10" s="69">
         <v>14</v>
       </c>
-      <c r="X10" s="73">
+      <c r="X10" s="69">
         <v>15</v>
       </c>
-      <c r="Y10" s="71">
+      <c r="Y10" s="67">
         <v>16</v>
       </c>
-      <c r="Z10" s="71">
+      <c r="Z10" s="67">
         <v>17</v>
       </c>
-      <c r="AA10" s="71">
+      <c r="AA10" s="67">
         <v>18</v>
       </c>
-      <c r="AB10" s="71">
+      <c r="AB10" s="67">
         <v>19</v>
       </c>
-      <c r="AC10" s="71">
+      <c r="AC10" s="67">
         <v>20</v>
       </c>
-      <c r="AD10" s="73">
+      <c r="AD10" s="69">
         <v>21</v>
       </c>
-      <c r="AE10" s="73">
+      <c r="AE10" s="69">
         <v>22</v>
       </c>
-      <c r="AF10" s="71">
+      <c r="AF10" s="67">
         <v>23</v>
       </c>
-      <c r="AG10" s="71">
+      <c r="AG10" s="67">
         <v>24</v>
       </c>
-      <c r="AH10" s="71">
+      <c r="AH10" s="67">
         <v>25</v>
       </c>
-      <c r="AI10" s="71">
+      <c r="AI10" s="67">
         <v>26</v>
       </c>
-      <c r="AJ10" s="71">
+      <c r="AJ10" s="67">
         <v>27</v>
       </c>
-      <c r="AK10" s="73">
+      <c r="AK10" s="69">
         <v>28</v>
       </c>
-      <c r="AL10" s="73">
+      <c r="AL10" s="69">
         <v>29</v>
       </c>
-      <c r="AM10" s="71">
+      <c r="AM10" s="67">
         <v>30</v>
       </c>
-      <c r="AN10" s="71">
+      <c r="AN10" s="67">
         <v>31</v>
       </c>
-      <c r="AO10" s="80" t="s">
+      <c r="AO10" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="AP10" s="80"/>
-      <c r="AQ10" s="74" t="s">
+      <c r="AP10" s="76"/>
+      <c r="AQ10" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="AR10" s="74"/>
-      <c r="AS10" s="81" t="s">
+      <c r="AR10" s="70"/>
+      <c r="AS10" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="AT10" s="81"/>
-      <c r="AU10" s="82" t="s">
+      <c r="AT10" s="77"/>
+      <c r="AU10" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="AV10" s="82"/>
-      <c r="AW10" s="79" t="s">
+      <c r="AV10" s="78"/>
+      <c r="AW10" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AX10" s="79"/>
+      <c r="AX10" s="75"/>
     </row>
     <row r="11" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="73"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="71"/>
-      <c r="M11" s="71"/>
-      <c r="N11" s="71"/>
-      <c r="O11" s="71"/>
-      <c r="P11" s="73"/>
-      <c r="Q11" s="73"/>
-      <c r="R11" s="71"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="71"/>
-      <c r="U11" s="71"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="73"/>
-      <c r="X11" s="73"/>
-      <c r="Y11" s="71"/>
-      <c r="Z11" s="71"/>
-      <c r="AA11" s="71"/>
-      <c r="AB11" s="71"/>
-      <c r="AC11" s="71"/>
-      <c r="AD11" s="73"/>
-      <c r="AE11" s="73"/>
-      <c r="AF11" s="71"/>
-      <c r="AG11" s="71"/>
-      <c r="AH11" s="71"/>
-      <c r="AI11" s="71"/>
-      <c r="AJ11" s="71"/>
-      <c r="AK11" s="73"/>
-      <c r="AL11" s="73"/>
-      <c r="AM11" s="71"/>
-      <c r="AN11" s="71"/>
-      <c r="AO11" s="80"/>
-      <c r="AP11" s="80"/>
-      <c r="AQ11" s="74"/>
-      <c r="AR11" s="74"/>
-      <c r="AS11" s="81"/>
-      <c r="AT11" s="81"/>
-      <c r="AU11" s="82"/>
-      <c r="AV11" s="82"/>
-      <c r="AW11" s="79"/>
-      <c r="AX11" s="79"/>
+      <c r="A11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="67"/>
+      <c r="S11" s="67"/>
+      <c r="T11" s="67"/>
+      <c r="U11" s="67"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="67"/>
+      <c r="Z11" s="67"/>
+      <c r="AA11" s="67"/>
+      <c r="AB11" s="67"/>
+      <c r="AC11" s="67"/>
+      <c r="AD11" s="69"/>
+      <c r="AE11" s="69"/>
+      <c r="AF11" s="67"/>
+      <c r="AG11" s="67"/>
+      <c r="AH11" s="67"/>
+      <c r="AI11" s="67"/>
+      <c r="AJ11" s="67"/>
+      <c r="AK11" s="69"/>
+      <c r="AL11" s="69"/>
+      <c r="AM11" s="67"/>
+      <c r="AN11" s="67"/>
+      <c r="AO11" s="76"/>
+      <c r="AP11" s="76"/>
+      <c r="AQ11" s="70"/>
+      <c r="AR11" s="70"/>
+      <c r="AS11" s="77"/>
+      <c r="AT11" s="77"/>
+      <c r="AU11" s="78"/>
+      <c r="AV11" s="78"/>
+      <c r="AW11" s="75"/>
+      <c r="AX11" s="75"/>
     </row>
     <row r="12" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="73"/>
-      <c r="K12" s="71"/>
-      <c r="L12" s="71"/>
-      <c r="M12" s="71"/>
-      <c r="N12" s="71"/>
-      <c r="O12" s="71"/>
-      <c r="P12" s="73"/>
-      <c r="Q12" s="73"/>
-      <c r="R12" s="71"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="71"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="73"/>
-      <c r="Y12" s="71"/>
-      <c r="Z12" s="71"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="71"/>
-      <c r="AC12" s="71"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="73"/>
-      <c r="AF12" s="71"/>
-      <c r="AG12" s="71"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="71"/>
-      <c r="AJ12" s="71"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="73"/>
-      <c r="AM12" s="71"/>
-      <c r="AN12" s="71"/>
-      <c r="AO12" s="80"/>
-      <c r="AP12" s="80"/>
-      <c r="AQ12" s="74"/>
-      <c r="AR12" s="74"/>
-      <c r="AS12" s="81"/>
-      <c r="AT12" s="81"/>
-      <c r="AU12" s="82"/>
-      <c r="AV12" s="82"/>
-      <c r="AW12" s="79"/>
-      <c r="AX12" s="79"/>
+      <c r="A12" s="66"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="69"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="69"/>
+      <c r="Q12" s="69"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="69"/>
+      <c r="X12" s="69"/>
+      <c r="Y12" s="67"/>
+      <c r="Z12" s="67"/>
+      <c r="AA12" s="67"/>
+      <c r="AB12" s="67"/>
+      <c r="AC12" s="67"/>
+      <c r="AD12" s="69"/>
+      <c r="AE12" s="69"/>
+      <c r="AF12" s="67"/>
+      <c r="AG12" s="67"/>
+      <c r="AH12" s="67"/>
+      <c r="AI12" s="67"/>
+      <c r="AJ12" s="67"/>
+      <c r="AK12" s="69"/>
+      <c r="AL12" s="69"/>
+      <c r="AM12" s="67"/>
+      <c r="AN12" s="67"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="70"/>
+      <c r="AR12" s="70"/>
+      <c r="AS12" s="77"/>
+      <c r="AT12" s="77"/>
+      <c r="AU12" s="78"/>
+      <c r="AV12" s="78"/>
+      <c r="AW12" s="75"/>
+      <c r="AX12" s="75"/>
     </row>
     <row r="13" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71">
+      <c r="A13" s="67">
         <v>1</v>
       </c>
-      <c r="B13" s="74" t="s">
+      <c r="B13" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="70" t="s">
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="71" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="77">
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="73">
         <v>5.4</v>
       </c>
-      <c r="L13" s="78">
-        <v>6</v>
-      </c>
-      <c r="M13" s="78">
-        <v>6</v>
-      </c>
-      <c r="N13" s="78">
-        <v>6</v>
-      </c>
-      <c r="O13" s="78">
-        <v>6</v>
-      </c>
-      <c r="P13" s="86" t="s">
+      <c r="L13" s="74">
+        <v>6</v>
+      </c>
+      <c r="M13" s="74">
+        <v>6</v>
+      </c>
+      <c r="N13" s="74">
+        <v>6</v>
+      </c>
+      <c r="O13" s="74">
+        <v>6</v>
+      </c>
+      <c r="P13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q13" s="86" t="s">
+      <c r="Q13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="R13" s="77">
+      <c r="R13" s="73">
         <v>5.5</v>
       </c>
-      <c r="S13" s="78">
-        <v>6</v>
-      </c>
-      <c r="T13" s="78">
-        <v>6</v>
-      </c>
-      <c r="U13" s="78">
-        <v>6</v>
-      </c>
-      <c r="V13" s="77">
+      <c r="S13" s="74">
+        <v>6</v>
+      </c>
+      <c r="T13" s="74">
+        <v>6</v>
+      </c>
+      <c r="U13" s="74">
+        <v>6</v>
+      </c>
+      <c r="V13" s="73">
         <v>5.5</v>
       </c>
-      <c r="W13" s="88">
+      <c r="W13" s="84">
         <v>5</v>
       </c>
-      <c r="X13" s="86" t="s">
+      <c r="X13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" s="78">
-        <v>6</v>
-      </c>
-      <c r="Z13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AA13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AB13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AC13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="94" t="s">
+      <c r="Y13" s="74">
+        <v>6</v>
+      </c>
+      <c r="Z13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AA13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AB13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AC13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="AE13" s="86" t="s">
+      <c r="AE13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="AF13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AG13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AH13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AI13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AJ13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AK13" s="86" t="s">
+      <c r="AF13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AG13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AH13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AI13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AJ13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AK13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="AL13" s="86" t="s">
+      <c r="AL13" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="AM13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AN13" s="78">
-        <v>6</v>
-      </c>
-      <c r="AO13" s="93">
+      <c r="AM13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AN13" s="74">
+        <v>6</v>
+      </c>
+      <c r="AO13" s="89">
         <f>SUM(J13:AN14)</f>
         <v>135.4</v>
       </c>
-      <c r="AP13" s="93"/>
-      <c r="AQ13" s="85">
+      <c r="AP13" s="89"/>
+      <c r="AQ13" s="81">
         <f>AO15</f>
         <v>34</v>
       </c>
-      <c r="AR13" s="85"/>
-      <c r="AS13" s="89">
+      <c r="AR13" s="81"/>
+      <c r="AS13" s="85">
         <f>SUM(AO13,AO15)</f>
         <v>169.4</v>
       </c>
-      <c r="AT13" s="89"/>
-      <c r="AU13" s="84"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="84"/>
-      <c r="AX13" s="84"/>
+      <c r="AT13" s="85"/>
+      <c r="AU13" s="80"/>
+      <c r="AV13" s="80"/>
+      <c r="AW13" s="80"/>
+      <c r="AX13" s="80"/>
     </row>
     <row r="14" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="77"/>
-      <c r="S14" s="78"/>
-      <c r="T14" s="78"/>
-      <c r="U14" s="78"/>
-      <c r="V14" s="77"/>
-      <c r="W14" s="88"/>
-      <c r="X14" s="86"/>
-      <c r="Y14" s="78"/>
-      <c r="Z14" s="78"/>
-      <c r="AA14" s="78"/>
-      <c r="AB14" s="78"/>
-      <c r="AC14" s="78"/>
-      <c r="AD14" s="94"/>
-      <c r="AE14" s="86"/>
-      <c r="AF14" s="78"/>
-      <c r="AG14" s="78"/>
-      <c r="AH14" s="78"/>
-      <c r="AI14" s="78"/>
-      <c r="AJ14" s="78"/>
-      <c r="AK14" s="86"/>
-      <c r="AL14" s="86"/>
-      <c r="AM14" s="78"/>
-      <c r="AN14" s="78"/>
-      <c r="AO14" s="93"/>
-      <c r="AP14" s="93"/>
-      <c r="AQ14" s="85"/>
-      <c r="AR14" s="85"/>
-      <c r="AS14" s="89"/>
-      <c r="AT14" s="89"/>
-      <c r="AU14" s="84"/>
-      <c r="AV14" s="84"/>
-      <c r="AW14" s="84"/>
-      <c r="AX14" s="84"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
+      <c r="O14" s="74"/>
+      <c r="P14" s="82"/>
+      <c r="Q14" s="82"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="74"/>
+      <c r="T14" s="74"/>
+      <c r="U14" s="74"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="84"/>
+      <c r="X14" s="82"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="74"/>
+      <c r="AA14" s="74"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="90"/>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="74"/>
+      <c r="AG14" s="74"/>
+      <c r="AH14" s="74"/>
+      <c r="AI14" s="74"/>
+      <c r="AJ14" s="74"/>
+      <c r="AK14" s="82"/>
+      <c r="AL14" s="82"/>
+      <c r="AM14" s="74"/>
+      <c r="AN14" s="74"/>
+      <c r="AO14" s="89"/>
+      <c r="AP14" s="89"/>
+      <c r="AQ14" s="81"/>
+      <c r="AR14" s="81"/>
+      <c r="AS14" s="85"/>
+      <c r="AT14" s="85"/>
+      <c r="AU14" s="80"/>
+      <c r="AV14" s="80"/>
+      <c r="AW14" s="80"/>
+      <c r="AX14" s="80"/>
     </row>
     <row r="15" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="90" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="91" t="s">
+      <c r="A15" s="67"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="86" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="91"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="92"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="85">
+      <c r="G15" s="87"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="81">
         <v>17</v>
       </c>
-      <c r="N15" s="87"/>
-      <c r="O15" s="87"/>
-      <c r="P15" s="83" t="s">
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+      <c r="P15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q15" s="83" t="s">
+      <c r="Q15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="87"/>
-      <c r="S15" s="87"/>
-      <c r="T15" s="87"/>
-      <c r="U15" s="87"/>
-      <c r="V15" s="87"/>
-      <c r="W15" s="83" t="s">
+      <c r="R15" s="83"/>
+      <c r="S15" s="83"/>
+      <c r="T15" s="83"/>
+      <c r="U15" s="83"/>
+      <c r="V15" s="83"/>
+      <c r="W15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="X15" s="83" t="s">
+      <c r="X15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" s="87"/>
-      <c r="Z15" s="87"/>
-      <c r="AA15" s="87"/>
-      <c r="AB15" s="87"/>
-      <c r="AC15" s="87"/>
-      <c r="AD15" s="83" t="s">
+      <c r="Y15" s="83"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="83"/>
+      <c r="AB15" s="83"/>
+      <c r="AC15" s="83"/>
+      <c r="AD15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AE15" s="83" t="s">
+      <c r="AE15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AF15" s="87"/>
-      <c r="AG15" s="87"/>
-      <c r="AH15" s="85">
+      <c r="AF15" s="83"/>
+      <c r="AG15" s="83"/>
+      <c r="AH15" s="81">
         <v>17</v>
       </c>
-      <c r="AI15" s="87"/>
-      <c r="AJ15" s="87"/>
-      <c r="AK15" s="83" t="s">
+      <c r="AI15" s="83"/>
+      <c r="AJ15" s="83"/>
+      <c r="AK15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AL15" s="83" t="s">
+      <c r="AL15" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="AM15" s="84"/>
-      <c r="AN15" s="84"/>
-      <c r="AO15" s="85">
+      <c r="AM15" s="80"/>
+      <c r="AN15" s="80"/>
+      <c r="AO15" s="81">
         <f>SUM(J15:AN16)</f>
         <v>34</v>
       </c>
-      <c r="AP15" s="85"/>
-      <c r="AQ15" s="85"/>
-      <c r="AR15" s="85"/>
-      <c r="AS15" s="89"/>
-      <c r="AT15" s="89"/>
-      <c r="AU15" s="84"/>
-      <c r="AV15" s="84"/>
-      <c r="AW15" s="84"/>
-      <c r="AX15" s="84"/>
+      <c r="AP15" s="81"/>
+      <c r="AQ15" s="81"/>
+      <c r="AR15" s="81"/>
+      <c r="AS15" s="85"/>
+      <c r="AT15" s="85"/>
+      <c r="AU15" s="80"/>
+      <c r="AV15" s="80"/>
+      <c r="AW15" s="80"/>
+      <c r="AX15" s="80"/>
     </row>
     <row r="16" spans="1:50" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="92"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="85"/>
-      <c r="N16" s="87"/>
-      <c r="O16" s="87"/>
-      <c r="P16" s="83"/>
-      <c r="Q16" s="83"/>
-      <c r="R16" s="87"/>
-      <c r="S16" s="87"/>
-      <c r="T16" s="87"/>
-      <c r="U16" s="87"/>
-      <c r="V16" s="87"/>
-      <c r="W16" s="83"/>
-      <c r="X16" s="83"/>
-      <c r="Y16" s="87"/>
-      <c r="Z16" s="87"/>
-      <c r="AA16" s="87"/>
-      <c r="AB16" s="87"/>
-      <c r="AC16" s="87"/>
-      <c r="AD16" s="83"/>
-      <c r="AE16" s="83"/>
-      <c r="AF16" s="87"/>
-      <c r="AG16" s="87"/>
-      <c r="AH16" s="85"/>
-      <c r="AI16" s="87"/>
-      <c r="AJ16" s="87"/>
-      <c r="AK16" s="83"/>
-      <c r="AL16" s="83"/>
-      <c r="AM16" s="84"/>
-      <c r="AN16" s="84"/>
-      <c r="AO16" s="85"/>
-      <c r="AP16" s="85"/>
-      <c r="AQ16" s="85"/>
-      <c r="AR16" s="85"/>
-      <c r="AS16" s="89"/>
-      <c r="AT16" s="89"/>
-      <c r="AU16" s="84"/>
-      <c r="AV16" s="84"/>
-      <c r="AW16" s="84"/>
-      <c r="AX16" s="84"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="88"/>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="83"/>
+      <c r="O16" s="83"/>
+      <c r="P16" s="79"/>
+      <c r="Q16" s="79"/>
+      <c r="R16" s="83"/>
+      <c r="S16" s="83"/>
+      <c r="T16" s="83"/>
+      <c r="U16" s="83"/>
+      <c r="V16" s="83"/>
+      <c r="W16" s="79"/>
+      <c r="X16" s="79"/>
+      <c r="Y16" s="83"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="83"/>
+      <c r="AB16" s="83"/>
+      <c r="AC16" s="83"/>
+      <c r="AD16" s="79"/>
+      <c r="AE16" s="79"/>
+      <c r="AF16" s="83"/>
+      <c r="AG16" s="83"/>
+      <c r="AH16" s="81"/>
+      <c r="AI16" s="83"/>
+      <c r="AJ16" s="83"/>
+      <c r="AK16" s="79"/>
+      <c r="AL16" s="79"/>
+      <c r="AM16" s="80"/>
+      <c r="AN16" s="80"/>
+      <c r="AO16" s="81"/>
+      <c r="AP16" s="81"/>
+      <c r="AQ16" s="81"/>
+      <c r="AR16" s="81"/>
+      <c r="AS16" s="85"/>
+      <c r="AT16" s="85"/>
+      <c r="AU16" s="80"/>
+      <c r="AV16" s="80"/>
+      <c r="AW16" s="80"/>
+      <c r="AX16" s="80"/>
     </row>
     <row r="21" spans="2:29" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AC21" s="4"/>
@@ -2754,13 +2735,13 @@
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
       <c r="W22" s="27" t="s">
         <v>17</v>
       </c>
@@ -2777,13 +2758,13 @@
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
-      <c r="O24" s="67"/>
-      <c r="P24" s="67"/>
-      <c r="Q24" s="67"/>
-      <c r="R24" s="67"/>
-      <c r="S24" s="67"/>
-      <c r="T24" s="67"/>
-      <c r="U24" s="67"/>
+      <c r="O24" s="65"/>
+      <c r="P24" s="65"/>
+      <c r="Q24" s="65"/>
+      <c r="R24" s="65"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
       <c r="W24" s="27" t="s">
         <v>18</v>
       </c>
